--- a/A.xlsx
+++ b/A.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20340" windowHeight="7950"/>
+    <workbookView windowWidth="20340" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="渠道对接祥瑞安装" sheetId="1" r:id="rId1"/>
     <sheet name="朗锋盛安装" sheetId="2" r:id="rId2"/>
-    <sheet name="朗锋盛维修" sheetId="3" r:id="rId3"/>
+    <sheet name="朗锋盛" sheetId="3" r:id="rId3"/>
     <sheet name="祥瑞电器" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -5909,15 +5909,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="#0"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -6018,8 +6018,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -6030,26 +6062,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6070,20 +6091,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -6095,28 +6103,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -6172,7 +6167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6184,19 +6185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6208,13 +6209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6226,13 +6221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6445,11 +6440,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6458,15 +6468,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -6487,17 +6488,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6513,26 +6528,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6559,28 +6554,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6589,109 +6584,109 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6714,7 +6709,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7097,17 +7092,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7327,44 +7322,44 @@
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="20% - 着色 1" xfId="2"/>
     <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="20% - 着色 3" xfId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 着色 1" xfId="6"/>
-    <cellStyle name="百分比" xfId="7" builtinId="5"/>
-    <cellStyle name="标题" xfId="8"/>
-    <cellStyle name="40% - 着色 3" xfId="9"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="40% - 着色 1" xfId="5"/>
+    <cellStyle name="20% - 着色 3" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 3" xfId="8"/>
+    <cellStyle name="标题" xfId="9"/>
     <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
     <cellStyle name="20% - 着色 2" xfId="11"/>
     <cellStyle name="20% - 着色 4" xfId="12"/>
-    <cellStyle name="着色 1" xfId="13"/>
+    <cellStyle name="20% - 着色 5" xfId="13"/>
     <cellStyle name="解释性文本" xfId="14"/>
-    <cellStyle name="20% - 着色 5" xfId="15"/>
-    <cellStyle name="着色 2" xfId="16"/>
-    <cellStyle name="20% - 着色 6" xfId="17"/>
+    <cellStyle name="着色 1" xfId="15"/>
+    <cellStyle name="20% - 着色 6" xfId="16"/>
+    <cellStyle name="着色 2" xfId="17"/>
     <cellStyle name="40% - 着色 2" xfId="18"/>
-    <cellStyle name="计算" xfId="19"/>
-    <cellStyle name="40% - 着色 4" xfId="20"/>
-    <cellStyle name="好" xfId="21"/>
-    <cellStyle name="40% - 着色 5" xfId="22"/>
+    <cellStyle name="40% - 着色 4" xfId="19"/>
+    <cellStyle name="计算" xfId="20"/>
+    <cellStyle name="40% - 着色 5" xfId="21"/>
+    <cellStyle name="好" xfId="22"/>
     <cellStyle name="40% - 着色 6" xfId="23"/>
     <cellStyle name="60% - 着色 1" xfId="24"/>
-    <cellStyle name="输入" xfId="25"/>
-    <cellStyle name="60% - 着色 2" xfId="26"/>
+    <cellStyle name="60% - 着色 2" xfId="25"/>
+    <cellStyle name="输入" xfId="26"/>
     <cellStyle name="60% - 着色 3" xfId="27"/>
     <cellStyle name="60% - 着色 4" xfId="28"/>
-    <cellStyle name="链接单元格" xfId="29"/>
-    <cellStyle name="60% - 着色 5" xfId="30"/>
+    <cellStyle name="60% - 着色 5" xfId="29"/>
+    <cellStyle name="链接单元格" xfId="30"/>
     <cellStyle name="60% - 着色 6" xfId="31"/>
     <cellStyle name="标题 1" xfId="32"/>
     <cellStyle name="标题 2" xfId="33"/>
     <cellStyle name="标题 3" xfId="34"/>
-    <cellStyle name="警告文本" xfId="35"/>
-    <cellStyle name="标题 4" xfId="36"/>
+    <cellStyle name="标题 4" xfId="35"/>
+    <cellStyle name="警告文本" xfId="36"/>
     <cellStyle name="差" xfId="37"/>
     <cellStyle name="汇总" xfId="38"/>
     <cellStyle name="检查单元格" xfId="39"/>
-    <cellStyle name="着色 5" xfId="40"/>
-    <cellStyle name="适中" xfId="41"/>
+    <cellStyle name="适中" xfId="40"/>
+    <cellStyle name="着色 5" xfId="41"/>
     <cellStyle name="输出" xfId="42"/>
     <cellStyle name="着色 3" xfId="43"/>
     <cellStyle name="着色 4" xfId="44"/>
@@ -7757,7 +7752,7 @@
   </sheetPr>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
@@ -9365,7 +9360,7 @@
       <formula>AND(COUNTIF($E:$E,E2)&gt;1,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -28963,7 +28958,7 @@
       <formula>AND(COUNTIF($E:$E,E2)&gt;1,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -28977,10 +28972,10 @@
   </sheetPr>
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -31049,7 +31044,7 @@
       <formula>AND(COUNTIF($D:$D,D2)&gt;1,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -33184,7 +33179,7 @@
       <formula>AND(COUNTIF($E:$E,E2)&gt;1,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
